--- a/Results/Categorization/dp-partial-glove.xlsx
+++ b/Results/Categorization/dp-partial-glove.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="1894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="1882">
   <si>
     <t>id</t>
   </si>
@@ -4027,462 +4027,441 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE||FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD||SERVICE|SERVICE|</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|</t>
+  </si>
+  <si>
+    <t>SERVICE||SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|PRICES|PRICES|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD||FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE||AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE||FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|||AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD||SERVICE|SERVICE|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD||FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE</t>
+    <t>PRICES||FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|PRICES|SERVICE</t>
-  </si>
-  <si>
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|</t>
-  </si>
-  <si>
-    <t>SERVICE||SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|SERVICE|SERVICE|PRICES|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES||FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE|PRICES|AMBIENCE||</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
@@ -4495,40 +4474,25 @@
     <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
     <t>PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|PRICES|</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>AMBIENCE|PRICES|SERVICE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|PRICES|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|AMBIENCE</t>
@@ -6099,13 +6063,13 @@
         <v>1276</v>
       </c>
       <c r="F2" t="s">
-        <v>1337</v>
+        <v>1285</v>
       </c>
       <c r="G2" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="H2" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6125,13 +6089,13 @@
         <v>1277</v>
       </c>
       <c r="F3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G3" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="H3" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6151,13 +6115,13 @@
         <v>1278</v>
       </c>
       <c r="F4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="H4" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6177,13 +6141,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G5" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="H5" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6203,13 +6167,13 @@
         <v>1279</v>
       </c>
       <c r="F6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G6" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="H6" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6229,13 +6193,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G7" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="H7" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6255,13 +6219,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G8" t="s">
-        <v>1518</v>
+        <v>1506</v>
       </c>
       <c r="H8" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6281,13 +6245,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1344</v>
+        <v>1294</v>
       </c>
       <c r="G9" t="s">
-        <v>1519</v>
+        <v>1507</v>
       </c>
       <c r="H9" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6307,13 +6271,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1520</v>
+        <v>1508</v>
       </c>
       <c r="H10" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6333,13 +6297,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1345</v>
+        <v>1285</v>
       </c>
       <c r="G11" t="s">
-        <v>1521</v>
+        <v>1509</v>
       </c>
       <c r="H11" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6359,13 +6323,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G12" t="s">
-        <v>1522</v>
+        <v>1510</v>
       </c>
       <c r="H12" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6385,13 +6349,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G13" t="s">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="H13" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6411,13 +6375,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="G14" t="s">
-        <v>1524</v>
+        <v>1512</v>
       </c>
       <c r="H14" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6437,13 +6401,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G15" t="s">
-        <v>1525</v>
+        <v>1513</v>
       </c>
       <c r="H15" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6463,13 +6427,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G16" t="s">
-        <v>1526</v>
+        <v>1514</v>
       </c>
       <c r="H16" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6489,13 +6453,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1527</v>
+        <v>1515</v>
       </c>
       <c r="H17" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6515,13 +6479,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1528</v>
+        <v>1516</v>
       </c>
       <c r="H18" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6541,7 +6505,7 @@
         <v>1278</v>
       </c>
       <c r="H19" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6567,7 +6531,7 @@
         <v>947</v>
       </c>
       <c r="H20" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6593,7 +6557,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6613,13 +6577,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G22" t="s">
-        <v>1529</v>
+        <v>1517</v>
       </c>
       <c r="H22" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6639,13 +6603,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G23" t="s">
-        <v>1530</v>
+        <v>1518</v>
       </c>
       <c r="H23" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6671,7 +6635,7 @@
         <v>933</v>
       </c>
       <c r="H24" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6691,13 +6655,13 @@
         <v>1276</v>
       </c>
       <c r="F25" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
-        <v>1531</v>
+        <v>1519</v>
       </c>
       <c r="H25" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6717,13 +6681,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G26" t="s">
-        <v>1532</v>
+        <v>1520</v>
       </c>
       <c r="H26" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6749,7 +6713,7 @@
         <v>996</v>
       </c>
       <c r="H27" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6769,13 +6733,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G28" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="H28" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6795,13 +6759,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G29" t="s">
-        <v>1534</v>
+        <v>1522</v>
       </c>
       <c r="H29" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6821,13 +6785,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G30" t="s">
-        <v>1535</v>
+        <v>1523</v>
       </c>
       <c r="H30" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6847,13 +6811,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G31" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="H31" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6879,7 +6843,7 @@
         <v>933</v>
       </c>
       <c r="H32" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6905,7 +6869,7 @@
         <v>959</v>
       </c>
       <c r="H33" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6931,7 +6895,7 @@
         <v>933</v>
       </c>
       <c r="H34" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6951,13 +6915,13 @@
         <v>1287</v>
       </c>
       <c r="F35" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G35" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="H35" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6977,13 +6941,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G36" t="s">
-        <v>1538</v>
+        <v>1526</v>
       </c>
       <c r="H36" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7009,7 +6973,7 @@
         <v>962</v>
       </c>
       <c r="H37" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7029,13 +6993,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G38" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H38" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7055,13 +7019,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G39" t="s">
-        <v>1540</v>
+        <v>1528</v>
       </c>
       <c r="H39" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7081,13 +7045,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G40" t="s">
-        <v>1541</v>
+        <v>1529</v>
       </c>
       <c r="H40" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7107,13 +7071,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G41" t="s">
-        <v>1542</v>
+        <v>1530</v>
       </c>
       <c r="H41" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7133,13 +7097,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G42" t="s">
-        <v>1543</v>
+        <v>1531</v>
       </c>
       <c r="H42" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7159,13 +7123,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1365</v>
+        <v>1337</v>
       </c>
       <c r="G43" t="s">
-        <v>1544</v>
+        <v>1532</v>
       </c>
       <c r="H43" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7191,7 +7155,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7211,13 +7175,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G45" t="s">
-        <v>1545</v>
+        <v>1533</v>
       </c>
       <c r="H45" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7237,13 +7201,13 @@
         <v>1289</v>
       </c>
       <c r="F46" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="G46" t="s">
-        <v>1546</v>
+        <v>1534</v>
       </c>
       <c r="H46" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7263,13 +7227,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1547</v>
+        <v>1535</v>
       </c>
       <c r="H47" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7295,7 +7259,7 @@
         <v>989</v>
       </c>
       <c r="H48" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7315,13 +7279,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G49" t="s">
-        <v>1548</v>
+        <v>1536</v>
       </c>
       <c r="H49" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7341,13 +7305,13 @@
         <v>1278</v>
       </c>
       <c r="F50" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G50" t="s">
-        <v>1549</v>
+        <v>1537</v>
       </c>
       <c r="H50" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7367,13 +7331,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G51" t="s">
-        <v>1550</v>
+        <v>1538</v>
       </c>
       <c r="H51" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7393,13 +7357,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="G52" t="s">
-        <v>1551</v>
+        <v>1539</v>
       </c>
       <c r="H52" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7419,13 +7383,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G53" t="s">
-        <v>1552</v>
+        <v>1540</v>
       </c>
       <c r="H53" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7445,13 +7409,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G54" t="s">
-        <v>1553</v>
+        <v>1541</v>
       </c>
       <c r="H54" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7471,13 +7435,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="G55" t="s">
-        <v>1554</v>
+        <v>1542</v>
       </c>
       <c r="H55" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7497,13 +7461,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="G56" t="s">
-        <v>1555</v>
+        <v>1543</v>
       </c>
       <c r="H56" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7523,13 +7487,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G57" t="s">
-        <v>1556</v>
+        <v>1544</v>
       </c>
       <c r="H57" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7549,13 +7513,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G58" t="s">
-        <v>1557</v>
+        <v>1545</v>
       </c>
       <c r="H58" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7575,13 +7539,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G59" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
       <c r="H59" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7601,13 +7565,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G60" t="s">
-        <v>1559</v>
+        <v>1547</v>
       </c>
       <c r="H60" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7627,13 +7591,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G61" t="s">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="H61" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7653,13 +7617,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="G62" t="s">
-        <v>1561</v>
+        <v>1549</v>
       </c>
       <c r="H62" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7679,13 +7643,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G63" t="s">
-        <v>1562</v>
+        <v>1550</v>
       </c>
       <c r="H63" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7705,13 +7669,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G64" t="s">
-        <v>1563</v>
+        <v>1551</v>
       </c>
       <c r="H64" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7737,7 +7701,7 @@
         <v>947</v>
       </c>
       <c r="H65" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7757,13 +7721,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="G66" t="s">
-        <v>1564</v>
+        <v>1552</v>
       </c>
       <c r="H66" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7783,13 +7747,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G67" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="H67" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7809,13 +7773,13 @@
         <v>1294</v>
       </c>
       <c r="F68" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G68" t="s">
-        <v>1566</v>
+        <v>1554</v>
       </c>
       <c r="H68" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7838,10 +7802,10 @@
         <v>1278</v>
       </c>
       <c r="G69" t="s">
-        <v>1567</v>
+        <v>1555</v>
       </c>
       <c r="H69" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7861,13 +7825,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G70" t="s">
-        <v>1568</v>
+        <v>1556</v>
       </c>
       <c r="H70" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7887,13 +7851,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="G71" t="s">
-        <v>1569</v>
+        <v>1557</v>
       </c>
       <c r="H71" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7913,13 +7877,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G72" t="s">
-        <v>1570</v>
+        <v>1558</v>
       </c>
       <c r="H72" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7945,7 +7909,7 @@
         <v>947</v>
       </c>
       <c r="H73" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7965,13 +7929,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G74" t="s">
-        <v>1571</v>
+        <v>1559</v>
       </c>
       <c r="H74" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7991,13 +7955,13 @@
         <v>1276</v>
       </c>
       <c r="F75" t="s">
-        <v>1379</v>
+        <v>1276</v>
       </c>
       <c r="G75" t="s">
-        <v>1572</v>
+        <v>1560</v>
       </c>
       <c r="H75" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8017,13 +7981,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G76" t="s">
-        <v>1573</v>
+        <v>1561</v>
       </c>
       <c r="H76" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8043,13 +8007,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="G77" t="s">
-        <v>1574</v>
+        <v>1562</v>
       </c>
       <c r="H77" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8069,13 +8033,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G78" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="H78" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8095,13 +8059,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1576</v>
+        <v>1564</v>
       </c>
       <c r="H79" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8127,7 +8091,7 @@
         <v>933</v>
       </c>
       <c r="H80" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8147,13 +8111,13 @@
         <v>1278</v>
       </c>
       <c r="F81" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G81" t="s">
-        <v>1577</v>
+        <v>1565</v>
       </c>
       <c r="H81" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8179,7 +8143,7 @@
         <v>1065</v>
       </c>
       <c r="H82" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8205,7 +8169,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8225,13 +8189,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="G84" t="s">
-        <v>1578</v>
+        <v>1566</v>
       </c>
       <c r="H84" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8251,13 +8215,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="H85" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8277,13 +8241,13 @@
         <v>1278</v>
       </c>
       <c r="F86" t="s">
-        <v>1383</v>
+        <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1580</v>
+        <v>1568</v>
       </c>
       <c r="H86" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8303,13 +8267,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G87" t="s">
-        <v>1581</v>
+        <v>1569</v>
       </c>
       <c r="H87" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8329,13 +8293,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G88" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="H88" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8355,13 +8319,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1369</v>
+        <v>1345</v>
       </c>
       <c r="G89" t="s">
-        <v>1583</v>
+        <v>1571</v>
       </c>
       <c r="H89" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8381,13 +8345,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="G90" t="s">
-        <v>1584</v>
+        <v>1572</v>
       </c>
       <c r="H90" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8407,13 +8371,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="G91" t="s">
-        <v>1585</v>
+        <v>1573</v>
       </c>
       <c r="H91" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8433,13 +8397,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="G92" t="s">
-        <v>1586</v>
+        <v>1574</v>
       </c>
       <c r="H92" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8459,13 +8423,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="G93" t="s">
-        <v>1587</v>
+        <v>1575</v>
       </c>
       <c r="H93" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8485,13 +8449,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="G94" t="s">
-        <v>1588</v>
+        <v>1576</v>
       </c>
       <c r="H94" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8511,13 +8475,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G95" t="s">
-        <v>1589</v>
+        <v>1577</v>
       </c>
       <c r="H95" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8537,13 +8501,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G96" t="s">
-        <v>1590</v>
+        <v>1578</v>
       </c>
       <c r="H96" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8563,13 +8527,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="G97" t="s">
-        <v>1591</v>
+        <v>1579</v>
       </c>
       <c r="H97" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8589,13 +8553,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G98" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="H98" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8615,13 +8579,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G99" t="s">
-        <v>1593</v>
+        <v>1581</v>
       </c>
       <c r="H99" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8641,13 +8605,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G100" t="s">
-        <v>1594</v>
+        <v>1582</v>
       </c>
       <c r="H100" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8667,13 +8631,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G101" t="s">
-        <v>1595</v>
+        <v>1583</v>
       </c>
       <c r="H101" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8696,10 +8660,10 @@
         <v>1285</v>
       </c>
       <c r="G102" t="s">
-        <v>1596</v>
+        <v>1584</v>
       </c>
       <c r="H102" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8719,13 +8683,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G103" t="s">
-        <v>1597</v>
+        <v>1585</v>
       </c>
       <c r="H103" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8745,13 +8709,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="G104" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="H104" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8777,7 +8741,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8797,13 +8761,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G106" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="H106" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8823,13 +8787,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="G107" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="H107" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8849,13 +8813,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="G108" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="H108" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8875,10 +8839,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1602</v>
+        <v>1590</v>
       </c>
       <c r="H109" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8904,7 +8868,7 @@
         <v>1025</v>
       </c>
       <c r="H110" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8930,7 +8894,7 @@
         <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8950,13 +8914,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="G112" t="s">
-        <v>1603</v>
+        <v>1591</v>
       </c>
       <c r="H112" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8976,13 +8940,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G113" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="H113" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -9008,7 +8972,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9028,13 +8992,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="G115" t="s">
-        <v>1601</v>
+        <v>1589</v>
       </c>
       <c r="H115" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9054,13 +9018,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="G116" t="s">
-        <v>1605</v>
+        <v>1593</v>
       </c>
       <c r="H116" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9080,13 +9044,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="G117" t="s">
-        <v>1606</v>
+        <v>1594</v>
       </c>
       <c r="H117" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9106,13 +9070,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="G118" t="s">
-        <v>1607</v>
+        <v>1595</v>
       </c>
       <c r="H118" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9132,13 +9096,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G119" t="s">
-        <v>1608</v>
+        <v>1596</v>
       </c>
       <c r="H119" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9158,13 +9122,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="G120" t="s">
-        <v>1609</v>
+        <v>1597</v>
       </c>
       <c r="H120" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9184,13 +9148,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="G121" t="s">
-        <v>1610</v>
+        <v>1598</v>
       </c>
       <c r="H121" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9216,7 +9180,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9236,13 +9200,13 @@
         <v>1278</v>
       </c>
       <c r="F123" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="G123" t="s">
-        <v>1611</v>
+        <v>1599</v>
       </c>
       <c r="H123" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9268,7 +9232,7 @@
         <v>1035</v>
       </c>
       <c r="H124" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9288,13 +9252,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="G125" t="s">
-        <v>1612</v>
+        <v>1600</v>
       </c>
       <c r="H125" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9314,13 +9278,13 @@
         <v>1278</v>
       </c>
       <c r="F126" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G126" t="s">
-        <v>1613</v>
+        <v>1601</v>
       </c>
       <c r="H126" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9340,13 +9304,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1402</v>
+        <v>1339</v>
       </c>
       <c r="G127" t="s">
-        <v>1614</v>
+        <v>1602</v>
       </c>
       <c r="H127" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9372,7 +9336,7 @@
         <v>947</v>
       </c>
       <c r="H128" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9392,13 +9356,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G129" t="s">
-        <v>1615</v>
+        <v>1603</v>
       </c>
       <c r="H129" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9418,13 +9382,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="G130" t="s">
-        <v>1616</v>
+        <v>1604</v>
       </c>
       <c r="H130" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9444,13 +9408,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="G131" t="s">
-        <v>1617</v>
+        <v>1605</v>
       </c>
       <c r="H131" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9476,7 +9440,7 @@
         <v>1240</v>
       </c>
       <c r="H132" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9502,7 +9466,7 @@
         <v>933</v>
       </c>
       <c r="H133" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9522,13 +9486,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="G134" t="s">
-        <v>1618</v>
+        <v>1606</v>
       </c>
       <c r="H134" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9548,13 +9512,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="G135" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="H135" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9574,13 +9538,13 @@
         <v>1278</v>
       </c>
       <c r="F136" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G136" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="H136" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9600,13 +9564,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="G137" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="H137" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9632,7 +9596,7 @@
         <v>1025</v>
       </c>
       <c r="H138" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9652,13 +9616,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1407</v>
+        <v>1399</v>
       </c>
       <c r="G139" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="H139" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9678,13 +9642,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1408</v>
+        <v>1400</v>
       </c>
       <c r="G140" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="H140" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9704,13 +9668,13 @@
         <v>1278</v>
       </c>
       <c r="F141" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G141" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="H141" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9730,13 +9694,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G142" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="H142" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9756,13 +9720,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1409</v>
+        <v>1401</v>
       </c>
       <c r="G143" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="H143" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9782,13 +9746,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1378</v>
+        <v>1402</v>
       </c>
       <c r="G144" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="H144" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9808,13 +9772,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="G145" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="H145" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9834,13 +9798,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="G146" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="H146" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9860,13 +9824,13 @@
         <v>1276</v>
       </c>
       <c r="F147" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G147" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="H147" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9886,13 +9850,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1378</v>
+        <v>1402</v>
       </c>
       <c r="G148" t="s">
-        <v>1631</v>
+        <v>1619</v>
       </c>
       <c r="H148" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9912,13 +9876,13 @@
         <v>1277</v>
       </c>
       <c r="F149" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G149" t="s">
-        <v>1632</v>
+        <v>1620</v>
       </c>
       <c r="H149" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9938,13 +9902,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="G150" t="s">
-        <v>1633</v>
+        <v>1621</v>
       </c>
       <c r="H150" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9964,13 +9928,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="G151" t="s">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="H151" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9990,13 +9954,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G152" t="s">
-        <v>1635</v>
+        <v>1623</v>
       </c>
       <c r="H152" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -10016,13 +9980,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G153" t="s">
-        <v>1636</v>
+        <v>1624</v>
       </c>
       <c r="H153" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10042,13 +10006,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="G154" t="s">
-        <v>1637</v>
+        <v>1625</v>
       </c>
       <c r="H154" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10068,13 +10032,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="H155" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10100,7 +10064,7 @@
         <v>1062</v>
       </c>
       <c r="H156" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10120,13 +10084,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G157" t="s">
-        <v>1639</v>
+        <v>1627</v>
       </c>
       <c r="H157" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10146,13 +10110,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G158" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
       <c r="H158" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10178,7 +10142,7 @@
         <v>1065</v>
       </c>
       <c r="H159" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10204,7 +10168,7 @@
         <v>1095</v>
       </c>
       <c r="H160" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10230,7 +10194,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10256,7 +10220,7 @@
         <v>1062</v>
       </c>
       <c r="H162" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10276,13 +10240,13 @@
         <v>1278</v>
       </c>
       <c r="F163" t="s">
-        <v>1340</v>
+        <v>1278</v>
       </c>
       <c r="G163" t="s">
-        <v>1641</v>
+        <v>1629</v>
       </c>
       <c r="H163" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10308,7 +10272,7 @@
         <v>996</v>
       </c>
       <c r="H164" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10328,13 +10292,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1415</v>
+        <v>1373</v>
       </c>
       <c r="G165" t="s">
-        <v>1642</v>
+        <v>1630</v>
       </c>
       <c r="H165" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10357,10 +10321,10 @@
         <v>1278</v>
       </c>
       <c r="G166" t="s">
-        <v>1643</v>
+        <v>1631</v>
       </c>
       <c r="H166" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10380,13 +10344,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1360</v>
+        <v>1408</v>
       </c>
       <c r="G167" t="s">
-        <v>1644</v>
+        <v>1632</v>
       </c>
       <c r="H167" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10406,13 +10370,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="G168" t="s">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="H168" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10438,7 +10402,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10461,10 +10425,10 @@
         <v>1294</v>
       </c>
       <c r="G170" t="s">
-        <v>1646</v>
+        <v>1634</v>
       </c>
       <c r="H170" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10484,13 +10448,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="G171" t="s">
-        <v>1647</v>
+        <v>1635</v>
       </c>
       <c r="H171" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10510,13 +10474,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G172" t="s">
-        <v>1648</v>
+        <v>1636</v>
       </c>
       <c r="H172" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10536,13 +10500,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1649</v>
+        <v>1637</v>
       </c>
       <c r="H173" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10562,13 +10526,13 @@
         <v>1277</v>
       </c>
       <c r="F174" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="G174" t="s">
-        <v>1650</v>
+        <v>1638</v>
       </c>
       <c r="H174" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10588,13 +10552,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G175" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="H175" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10614,13 +10578,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="G176" t="s">
-        <v>1651</v>
+        <v>1639</v>
       </c>
       <c r="H176" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10640,13 +10604,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G177" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="H177" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10666,13 +10630,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G178" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="H178" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10692,13 +10656,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1417</v>
+        <v>1399</v>
       </c>
       <c r="G179" t="s">
-        <v>1652</v>
+        <v>1640</v>
       </c>
       <c r="H179" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10718,13 +10682,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1347</v>
+        <v>1411</v>
       </c>
       <c r="G180" t="s">
-        <v>1653</v>
+        <v>1641</v>
       </c>
       <c r="H180" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10744,13 +10708,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="G181" t="s">
-        <v>1654</v>
+        <v>1642</v>
       </c>
       <c r="H181" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10770,13 +10734,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="G182" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="H182" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10796,13 +10760,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G183" t="s">
-        <v>1656</v>
+        <v>1644</v>
       </c>
       <c r="H183" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10822,13 +10786,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G184" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="H184" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10848,13 +10812,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G185" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="H185" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10880,7 +10844,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10906,7 +10870,7 @@
         <v>933</v>
       </c>
       <c r="H187" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10932,7 +10896,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10958,7 +10922,7 @@
         <v>1095</v>
       </c>
       <c r="H189" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10984,7 +10948,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -11004,13 +10968,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1419</v>
+        <v>1351</v>
       </c>
       <c r="G191" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="H191" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11030,13 +10994,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G192" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="H192" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11056,13 +11020,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="G193" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="H193" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11082,13 +11046,13 @@
         <v>1278</v>
       </c>
       <c r="F194" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G194" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="H194" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11114,7 +11078,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11140,7 +11104,7 @@
         <v>1095</v>
       </c>
       <c r="H196" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11166,7 +11130,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11186,7 +11150,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11206,13 +11170,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="G199" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="H199" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11238,7 +11202,7 @@
         <v>1046</v>
       </c>
       <c r="H200" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11258,13 +11222,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G201" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="H201" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11284,13 +11248,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="G202" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="H202" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11316,7 +11280,7 @@
         <v>1089</v>
       </c>
       <c r="H203" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11336,13 +11300,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="G204" t="s">
-        <v>1666</v>
+        <v>1654</v>
       </c>
       <c r="H204" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11362,13 +11326,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G205" t="s">
-        <v>1667</v>
+        <v>1655</v>
       </c>
       <c r="H205" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11388,13 +11352,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="G206" t="s">
-        <v>1668</v>
+        <v>1656</v>
       </c>
       <c r="H206" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11414,13 +11378,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G207" t="s">
-        <v>1669</v>
+        <v>1657</v>
       </c>
       <c r="H207" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11440,13 +11404,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1360</v>
+        <v>1408</v>
       </c>
       <c r="G208" t="s">
-        <v>1670</v>
+        <v>1658</v>
       </c>
       <c r="H208" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11466,13 +11430,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="G209" t="s">
-        <v>1671</v>
+        <v>1659</v>
       </c>
       <c r="H209" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11495,10 +11459,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1672</v>
+        <v>1660</v>
       </c>
       <c r="H210" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11518,13 +11482,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="G211" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
       <c r="H211" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11544,13 +11508,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="G212" t="s">
-        <v>1674</v>
+        <v>1662</v>
       </c>
       <c r="H212" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11576,7 +11540,7 @@
         <v>1106</v>
       </c>
       <c r="H213" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11596,13 +11560,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G214" t="s">
-        <v>1675</v>
+        <v>1663</v>
       </c>
       <c r="H214" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11622,13 +11586,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="G215" t="s">
-        <v>1676</v>
+        <v>1664</v>
       </c>
       <c r="H215" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11648,13 +11612,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="G216" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="H216" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11674,13 +11638,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="G217" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="H217" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11700,13 +11664,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G218" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="H218" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11726,13 +11690,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1365</v>
+        <v>1415</v>
       </c>
       <c r="G219" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="H219" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11752,13 +11716,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="G220" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="H220" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11778,13 +11742,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="G221" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="H221" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11804,13 +11768,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G222" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="H222" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11830,13 +11794,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="G223" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="H223" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11856,13 +11820,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="G224" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="H224" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11888,7 +11852,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11908,13 +11872,13 @@
         <v>1276</v>
       </c>
       <c r="F226" t="s">
-        <v>1379</v>
+        <v>1276</v>
       </c>
       <c r="G226" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="H226" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11934,13 +11898,13 @@
         <v>1285</v>
       </c>
       <c r="F227" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="G227" t="s">
-        <v>1686</v>
+        <v>1674</v>
       </c>
       <c r="H227" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11963,10 +11927,10 @@
         <v>1285</v>
       </c>
       <c r="G228" t="s">
-        <v>1687</v>
+        <v>1675</v>
       </c>
       <c r="H228" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11992,7 +11956,7 @@
         <v>947</v>
       </c>
       <c r="H229" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -12012,13 +11976,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G230" t="s">
-        <v>1688</v>
+        <v>1676</v>
       </c>
       <c r="H230" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12038,13 +12002,13 @@
         <v>1276</v>
       </c>
       <c r="F231" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G231" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="H231" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12067,10 +12031,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1690</v>
+        <v>1678</v>
       </c>
       <c r="H232" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12090,13 +12054,13 @@
         <v>1315</v>
       </c>
       <c r="F233" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="G233" t="s">
-        <v>1691</v>
+        <v>1679</v>
       </c>
       <c r="H233" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12116,13 +12080,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="G234" t="s">
-        <v>1692</v>
+        <v>1680</v>
       </c>
       <c r="H234" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12142,13 +12106,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="G235" t="s">
-        <v>1693</v>
+        <v>1681</v>
       </c>
       <c r="H235" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12168,13 +12132,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="G236" t="s">
-        <v>1694</v>
+        <v>1682</v>
       </c>
       <c r="H236" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12194,13 +12158,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1435</v>
+        <v>1350</v>
       </c>
       <c r="G237" t="s">
-        <v>1695</v>
+        <v>1683</v>
       </c>
       <c r="H237" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12220,13 +12184,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="G238" t="s">
-        <v>1696</v>
+        <v>1684</v>
       </c>
       <c r="H238" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12246,13 +12210,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G239" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="H239" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12272,13 +12236,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="G240" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="H240" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12298,13 +12262,13 @@
         <v>1285</v>
       </c>
       <c r="F241" t="s">
-        <v>1438</v>
+        <v>1410</v>
       </c>
       <c r="G241" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="H241" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12324,13 +12288,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="G242" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="H242" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12356,7 +12320,7 @@
         <v>947</v>
       </c>
       <c r="H243" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12382,7 +12346,7 @@
         <v>931</v>
       </c>
       <c r="H244" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12408,7 +12372,7 @@
         <v>947</v>
       </c>
       <c r="H245" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12434,7 +12398,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12454,13 +12418,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G247" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="H247" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12480,13 +12444,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="G248" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="H248" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12506,13 +12470,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G249" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="H249" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12532,13 +12496,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1383</v>
+        <v>1278</v>
       </c>
       <c r="G250" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="H250" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12558,13 +12522,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="G251" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="H251" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12587,7 +12551,7 @@
         <v>1132</v>
       </c>
       <c r="H252" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12607,13 +12571,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G253" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="H253" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12639,7 +12603,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12659,13 +12623,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="G255" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="H255" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12688,10 +12652,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="H256" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12711,13 +12675,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G257" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="H257" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12737,13 +12701,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="G258" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="H258" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12763,13 +12727,13 @@
         <v>1285</v>
       </c>
       <c r="F259" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="G259" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="H259" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12792,10 +12756,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="H260" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12821,7 +12785,7 @@
         <v>1138</v>
       </c>
       <c r="H261" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12847,7 +12811,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12867,13 +12831,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="G263" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="H263" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12899,7 +12863,7 @@
         <v>1160</v>
       </c>
       <c r="H264" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12919,13 +12883,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="G265" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="H265" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12945,13 +12909,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="G266" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="H266" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12971,13 +12935,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G267" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="H267" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12997,13 +12961,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="G268" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="H268" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -13023,13 +12987,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1445</v>
+        <v>1437</v>
       </c>
       <c r="G269" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="H269" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13049,13 +13013,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G270" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="H270" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13075,13 +13039,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G271" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H271" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13101,13 +13065,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="G272" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H272" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13127,13 +13091,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1447</v>
+        <v>1348</v>
       </c>
       <c r="G273" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="H273" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13153,13 +13117,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G274" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="H274" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13179,13 +13143,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G275" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="H275" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13205,13 +13169,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1384</v>
+        <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="H276" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13231,13 +13195,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1425</v>
+        <v>1348</v>
       </c>
       <c r="G277" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="H277" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13257,13 +13221,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G278" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="H278" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13289,7 +13253,7 @@
         <v>1022</v>
       </c>
       <c r="H279" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13309,13 +13273,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="G280" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="H280" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13335,13 +13299,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="G281" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="H281" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13361,13 +13325,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1401</v>
+        <v>1443</v>
       </c>
       <c r="G282" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="H282" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13393,7 +13357,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13413,13 +13377,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1452</v>
+        <v>1444</v>
       </c>
       <c r="G284" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="H284" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13439,13 +13403,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1453</v>
+        <v>1445</v>
       </c>
       <c r="G285" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="H285" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13465,13 +13429,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="G286" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="H286" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13497,7 +13461,7 @@
         <v>933</v>
       </c>
       <c r="H287" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13517,13 +13481,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="G288" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="H288" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13543,13 +13507,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1456</v>
+        <v>1448</v>
       </c>
       <c r="G289" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="H289" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13569,13 +13533,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="G290" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="H290" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13595,13 +13559,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1457</v>
+        <v>1449</v>
       </c>
       <c r="G291" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="H291" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13621,13 +13585,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="G292" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H292" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13647,13 +13611,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G293" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H293" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13679,7 +13643,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13699,13 +13663,13 @@
         <v>1276</v>
       </c>
       <c r="F295" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G295" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="H295" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13731,7 +13695,7 @@
         <v>947</v>
       </c>
       <c r="H296" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13751,13 +13715,13 @@
         <v>1285</v>
       </c>
       <c r="F297" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="G297" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="H297" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13777,13 +13741,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G298" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="H298" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13809,7 +13773,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13835,7 +13799,7 @@
         <v>951</v>
       </c>
       <c r="H300" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13858,10 +13822,10 @@
         <v>1276</v>
       </c>
       <c r="G301" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="H301" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13881,13 +13845,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1360</v>
+        <v>1408</v>
       </c>
       <c r="G302" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="H302" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13907,13 +13871,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1460</v>
+        <v>1452</v>
       </c>
       <c r="G303" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="H303" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13939,7 +13903,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13965,7 +13929,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13985,13 +13949,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="G306" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="H306" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -14017,7 +13981,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -14037,13 +14001,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G308" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="H308" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14063,13 +14027,13 @@
         <v>1300</v>
       </c>
       <c r="F309" t="s">
-        <v>1461</v>
+        <v>1453</v>
       </c>
       <c r="G309" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="H309" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14095,7 +14059,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14118,10 +14082,10 @@
         <v>1278</v>
       </c>
       <c r="G311" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="H311" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14147,7 +14111,7 @@
         <v>1089</v>
       </c>
       <c r="H312" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14167,13 +14131,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1462</v>
+        <v>1454</v>
       </c>
       <c r="G313" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="H313" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14199,7 +14163,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14219,13 +14183,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G315" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="H315" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14245,13 +14209,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1463</v>
+        <v>1351</v>
       </c>
       <c r="G316" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="H316" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14277,7 +14241,7 @@
         <v>947</v>
       </c>
       <c r="H317" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14303,7 +14267,7 @@
         <v>933</v>
       </c>
       <c r="H318" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14329,7 +14293,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14355,7 +14319,7 @@
         <v>1089</v>
       </c>
       <c r="H320" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14375,13 +14339,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1379</v>
+        <v>1410</v>
       </c>
       <c r="G321" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="H321" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14401,13 +14365,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="G322" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="H322" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14427,13 +14391,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="G323" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="H323" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14453,13 +14417,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G324" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H324" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14485,7 +14449,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14511,7 +14475,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14531,13 +14495,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="G327" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="H327" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14557,13 +14521,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="G328" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="H328" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14583,13 +14547,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="G329" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="H329" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14609,13 +14573,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="G330" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="H330" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14635,13 +14599,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="G331" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="H331" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14661,13 +14625,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="G332" t="s">
-        <v>1760</v>
+        <v>1748</v>
       </c>
       <c r="H332" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14687,13 +14651,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G333" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="H333" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14713,13 +14677,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1384</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1761</v>
+        <v>1749</v>
       </c>
       <c r="H334" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14739,13 +14703,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G335" t="s">
-        <v>1762</v>
+        <v>1750</v>
       </c>
       <c r="H335" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14765,13 +14729,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="G336" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="H336" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14791,13 +14755,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G337" t="s">
-        <v>1764</v>
+        <v>1752</v>
       </c>
       <c r="H337" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14817,13 +14781,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="G338" t="s">
-        <v>1765</v>
+        <v>1753</v>
       </c>
       <c r="H338" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14849,7 +14813,7 @@
         <v>1089</v>
       </c>
       <c r="H339" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14872,10 +14836,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1766</v>
+        <v>1754</v>
       </c>
       <c r="H340" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14895,13 +14859,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1360</v>
+        <v>1408</v>
       </c>
       <c r="G341" t="s">
-        <v>1767</v>
+        <v>1755</v>
       </c>
       <c r="H341" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14927,7 +14891,7 @@
         <v>947</v>
       </c>
       <c r="H342" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14947,13 +14911,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="G343" t="s">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="H343" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14973,13 +14937,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="G344" t="s">
-        <v>1769</v>
+        <v>1757</v>
       </c>
       <c r="H344" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14999,13 +14963,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1337</v>
+        <v>1465</v>
       </c>
       <c r="G345" t="s">
-        <v>1770</v>
+        <v>1758</v>
       </c>
       <c r="H345" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -15031,7 +14995,7 @@
         <v>1089</v>
       </c>
       <c r="H346" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -15051,13 +15015,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="G347" t="s">
-        <v>1771</v>
+        <v>1759</v>
       </c>
       <c r="H347" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15083,7 +15047,7 @@
         <v>951</v>
       </c>
       <c r="H348" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15109,7 +15073,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15129,13 +15093,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="G350" t="s">
-        <v>1772</v>
+        <v>1760</v>
       </c>
       <c r="H350" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15155,13 +15119,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1474</v>
+        <v>1348</v>
       </c>
       <c r="G351" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="H351" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15181,13 +15145,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="G352" t="s">
-        <v>1773</v>
+        <v>1761</v>
       </c>
       <c r="H352" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15207,13 +15171,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="G353" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="H353" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15233,13 +15197,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1380</v>
+        <v>1294</v>
       </c>
       <c r="G354" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="H354" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15259,13 +15223,13 @@
         <v>1285</v>
       </c>
       <c r="F355" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="G355" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="H355" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15291,7 +15255,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15311,13 +15275,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1478</v>
+        <v>1376</v>
       </c>
       <c r="G357" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="H357" t="s">
-        <v>1886</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15337,13 +15301,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G358" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="H358" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15363,13 +15327,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="G359" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="H359" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15389,13 +15353,13 @@
         <v>1285</v>
       </c>
       <c r="F360" t="s">
-        <v>1383</v>
+        <v>1278</v>
       </c>
       <c r="G360" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H360" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15415,13 +15379,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G361" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="H361" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15441,13 +15405,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="G362" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="H362" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15467,13 +15431,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="G363" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="H363" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15493,13 +15457,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="G364" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="H364" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15519,13 +15483,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1416</v>
+        <v>1346</v>
       </c>
       <c r="G365" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="H365" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15551,7 +15515,7 @@
         <v>1089</v>
       </c>
       <c r="H366" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15577,7 +15541,7 @@
         <v>933</v>
       </c>
       <c r="H367" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15597,13 +15561,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G368" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="H368" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15623,13 +15587,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="H369" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15649,13 +15613,13 @@
         <v>1285</v>
       </c>
       <c r="F370" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="G370" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="H370" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15675,13 +15639,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G371" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="H371" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15701,13 +15665,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G372" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="H372" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15727,13 +15691,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G373" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="H373" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15756,10 +15720,10 @@
         <v>1285</v>
       </c>
       <c r="G374" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="H374" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15779,13 +15743,13 @@
         <v>1285</v>
       </c>
       <c r="F375" t="s">
-        <v>1384</v>
+        <v>1285</v>
       </c>
       <c r="G375" t="s">
-        <v>1791</v>
+        <v>1779</v>
       </c>
       <c r="H375" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15805,13 +15769,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G376" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="H376" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15831,13 +15795,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="G377" t="s">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="H377" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15857,13 +15821,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="G378" t="s">
-        <v>1794</v>
+        <v>1782</v>
       </c>
       <c r="H378" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15883,13 +15847,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="G379" t="s">
-        <v>1795</v>
+        <v>1783</v>
       </c>
       <c r="H379" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15915,7 +15879,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15935,13 +15899,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="G381" t="s">
-        <v>1796</v>
+        <v>1784</v>
       </c>
       <c r="H381" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15961,13 +15925,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="G382" t="s">
-        <v>1797</v>
+        <v>1785</v>
       </c>
       <c r="H382" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15987,13 +15951,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="G383" t="s">
-        <v>1798</v>
+        <v>1786</v>
       </c>
       <c r="H383" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -16013,13 +15977,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="G384" t="s">
-        <v>1799</v>
+        <v>1787</v>
       </c>
       <c r="H384" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -16039,13 +16003,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1360</v>
+        <v>1408</v>
       </c>
       <c r="G385" t="s">
-        <v>1800</v>
+        <v>1788</v>
       </c>
       <c r="H385" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16065,13 +16029,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="G386" t="s">
-        <v>1801</v>
+        <v>1789</v>
       </c>
       <c r="H386" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16097,7 +16061,7 @@
         <v>996</v>
       </c>
       <c r="H387" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16117,13 +16081,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1434</v>
+        <v>1480</v>
       </c>
       <c r="G388" t="s">
-        <v>1802</v>
+        <v>1790</v>
       </c>
       <c r="H388" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16143,13 +16107,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G389" t="s">
-        <v>1803</v>
+        <v>1791</v>
       </c>
       <c r="H389" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16169,13 +16133,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G390" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="H390" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16195,13 +16159,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1438</v>
+        <v>1481</v>
       </c>
       <c r="G391" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
       <c r="H391" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16221,13 +16185,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="G392" t="s">
-        <v>1806</v>
+        <v>1794</v>
       </c>
       <c r="H392" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16253,7 +16217,7 @@
         <v>1046</v>
       </c>
       <c r="H393" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16273,13 +16237,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1483</v>
+        <v>1374</v>
       </c>
       <c r="G394" t="s">
-        <v>1807</v>
+        <v>1795</v>
       </c>
       <c r="H394" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16305,7 +16269,7 @@
         <v>1089</v>
       </c>
       <c r="H395" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16325,13 +16289,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="G396" t="s">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="H396" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16351,13 +16315,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G397" t="s">
-        <v>1792</v>
+        <v>1780</v>
       </c>
       <c r="H397" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16377,13 +16341,13 @@
         <v>1294</v>
       </c>
       <c r="F398" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="G398" t="s">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="H398" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16409,7 +16373,7 @@
         <v>968</v>
       </c>
       <c r="H399" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16429,13 +16393,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G400" t="s">
-        <v>1582</v>
+        <v>1570</v>
       </c>
       <c r="H400" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16455,13 +16419,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="G401" t="s">
-        <v>1810</v>
+        <v>1798</v>
       </c>
       <c r="H401" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16481,13 +16445,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="G402" t="s">
-        <v>1811</v>
+        <v>1799</v>
       </c>
       <c r="H402" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16507,13 +16471,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="G403" t="s">
-        <v>1812</v>
+        <v>1800</v>
       </c>
       <c r="H403" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16533,13 +16497,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G404" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="H404" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16559,13 +16523,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G405" t="s">
-        <v>1575</v>
+        <v>1563</v>
       </c>
       <c r="H405" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16591,7 +16555,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16611,13 +16575,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="G407" t="s">
-        <v>1814</v>
+        <v>1802</v>
       </c>
       <c r="H407" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16637,13 +16601,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1493</v>
+        <v>1428</v>
       </c>
       <c r="G408" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
       <c r="H408" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16663,13 +16627,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1379</v>
+        <v>1276</v>
       </c>
       <c r="G409" t="s">
-        <v>1816</v>
+        <v>1804</v>
       </c>
       <c r="H409" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16695,7 +16659,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16715,13 +16679,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="G411" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
       <c r="H411" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16741,13 +16705,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="G412" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
       <c r="H412" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16767,13 +16731,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1495</v>
+        <v>1465</v>
       </c>
       <c r="G413" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="H413" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16793,13 +16757,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G414" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
       <c r="H414" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16819,13 +16783,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="G415" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="H415" t="s">
-        <v>1890</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16851,7 +16815,7 @@
         <v>1240</v>
       </c>
       <c r="H416" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16870,14 +16834,11 @@
       <c r="E417" t="s">
         <v>1285</v>
       </c>
-      <c r="F417" t="s">
-        <v>1448</v>
-      </c>
       <c r="G417" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="H417" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16897,13 +16858,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="G418" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="H418" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16923,13 +16884,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="G419" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="H419" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16949,13 +16910,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G420" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="H420" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16975,13 +16936,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G421" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
       <c r="H421" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -17001,13 +16962,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1370</v>
+        <v>1278</v>
       </c>
       <c r="G422" t="s">
-        <v>1539</v>
+        <v>1527</v>
       </c>
       <c r="H422" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -17033,7 +16994,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -17059,7 +17020,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17079,13 +17040,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="G425" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
       <c r="H425" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17105,13 +17066,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1458</v>
+        <v>1450</v>
       </c>
       <c r="G426" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
       <c r="H426" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17131,13 +17092,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1498</v>
+        <v>1347</v>
       </c>
       <c r="G427" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
       <c r="H427" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17160,10 +17121,10 @@
         <v>1278</v>
       </c>
       <c r="G428" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
       <c r="H428" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17183,13 +17144,13 @@
         <v>1285</v>
       </c>
       <c r="F429" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="G429" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="H429" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17209,13 +17170,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G430" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="H430" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17235,13 +17196,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G431" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="H431" t="s">
-        <v>1891</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17261,13 +17222,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="G432" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="H432" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17293,7 +17254,7 @@
         <v>968</v>
       </c>
       <c r="H433" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17313,13 +17274,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="G434" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
       <c r="H434" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17339,13 +17300,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1502</v>
+        <v>1491</v>
       </c>
       <c r="G435" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
       <c r="H435" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17365,13 +17326,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1373</v>
+        <v>1276</v>
       </c>
       <c r="G436" t="s">
-        <v>1689</v>
+        <v>1677</v>
       </c>
       <c r="H436" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17391,13 +17352,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1383</v>
+        <v>1278</v>
       </c>
       <c r="G437" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
       <c r="H437" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17423,7 +17384,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17446,10 +17407,10 @@
         <v>1278</v>
       </c>
       <c r="G439" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
       <c r="H439" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17475,7 +17436,7 @@
         <v>1227</v>
       </c>
       <c r="H440" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17495,13 +17456,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="G441" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="H441" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17521,13 +17482,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1496</v>
+        <v>1465</v>
       </c>
       <c r="G442" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="H442" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17550,10 +17511,10 @@
         <v>1294</v>
       </c>
       <c r="G443" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="H443" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17573,13 +17534,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G444" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="H444" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17599,13 +17560,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1504</v>
+        <v>1467</v>
       </c>
       <c r="G445" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="H445" t="s">
-        <v>1892</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17625,13 +17586,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G446" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="H446" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17651,13 +17612,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G447" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
       <c r="H447" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17677,13 +17638,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G448" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="H448" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17703,13 +17664,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="G449" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H449" t="s">
         <v>1847</v>
-      </c>
-      <c r="H449" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17729,13 +17690,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1345</v>
+        <v>1384</v>
       </c>
       <c r="G450" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="H450" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17755,13 +17716,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1505</v>
+        <v>1493</v>
       </c>
       <c r="G451" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="H451" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17781,13 +17742,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1506</v>
+        <v>1494</v>
       </c>
       <c r="G452" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H452" t="s">
         <v>1850</v>
-      </c>
-      <c r="H452" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17807,13 +17768,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="G453" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="H453" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17839,7 +17800,7 @@
         <v>947</v>
       </c>
       <c r="H454" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17859,13 +17820,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1508</v>
+        <v>1496</v>
       </c>
       <c r="G455" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="H455" t="s">
-        <v>1884</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17885,13 +17846,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="G456" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H456" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17911,13 +17872,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1509</v>
+        <v>1497</v>
       </c>
       <c r="G457" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="H457" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17940,10 +17901,10 @@
         <v>1278</v>
       </c>
       <c r="G458" t="s">
-        <v>1854</v>
+        <v>1842</v>
       </c>
       <c r="H458" t="s">
-        <v>1893</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17963,10 +17924,10 @@
         <v>1294</v>
       </c>
       <c r="G459" t="s">
-        <v>1855</v>
+        <v>1843</v>
       </c>
       <c r="H459" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17992,7 +17953,7 @@
         <v>947</v>
       </c>
       <c r="H460" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -18012,13 +17973,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1510</v>
+        <v>1498</v>
       </c>
       <c r="G461" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="H461" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -18038,13 +17999,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="G462" t="s">
-        <v>1857</v>
+        <v>1845</v>
       </c>
       <c r="H462" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -18067,10 +18028,10 @@
         <v>1278</v>
       </c>
       <c r="G463" t="s">
-        <v>1858</v>
+        <v>1846</v>
       </c>
       <c r="H463" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
     </row>
   </sheetData>
